--- a/src/main/resources/data for recrume.xlsx
+++ b/src/main/resources/data for recrume.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="5976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="5976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Applicants" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
   <si>
     <t>Creativity</t>
   </si>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,6 +1009,26 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
       </c>
     </row>

--- a/src/main/resources/data for recrume.xlsx
+++ b/src/main/resources/data for recrume.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="5976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="5976" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Applicants" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>Creativity</t>
   </si>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +259,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,9 +291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +908,7 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -917,8 +927,11 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -938,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -978,7 +994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -994,8 +1010,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1015,7 +1034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1041,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,9 +1180,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A20">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/data for recrume.xlsx
+++ b/src/main/resources/data for recrume.xlsx
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
